--- a/template.xlsx
+++ b/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nielsenenterprise-my.sharepoint.com/personal/hyerang_lee_nielseniq_com/Documents/◈공유 드라이브◈/★IVPO (Y서버)★/Programming team/7. CATI/2023/PCSI/A-A01_한국부동산원/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHAN_LEE\Desktop\CHproject\3. NielsenIQ\SmartSurvey\PCSI\pcsiAuto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:4000b_{F157D1EB-B76F-469D-811B-8F3D321B367C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8D4E56E-A6DA-4CCF-8EB0-5A89E66C95B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1318C1FA-4EA4-4677-8C8E-99020B53B681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="248">
   <si>
     <t>SHORT_TEXT</t>
   </si>
@@ -1194,25 +1194,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-DQ1. &lt;font color=red&gt;(면접원이 목소리 듣고 입력)&lt;/font&gt; 성별</t>
-  </si>
-  <si>
     <t>if(QQQ12==1) goto DQ2X1
 if(QQQ12==2) goto DQ2X2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-DQ2. 고객님의 직업은 어떻게 되십니까?</t>
-  </si>
-  <si>
     <t>if( true ) goto DQ3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1221,15 +1207,6 @@
   </si>
   <si>
     <t>DQ2X2</t>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-DQ2. 고객님께서 속해계시는 사업체의 직원 수는 몇 명입니까?&lt;br/&gt;
-&lt;#DQ2X2#&gt; 명
-&lt;font color=red&gt;해당없음 : 999999 입력&lt;/font&gt;</t>
   </si>
   <si>
     <t>length(6)
@@ -1262,111 +1239,6 @@
   </si>
   <si>
     <t>display_yn(n)</t>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-DQ3. 고객님께서는 공공기관 고객만족도 조사와 관련하여 최근 3개월 이내에 &lt;%TEST%&gt;으로부터 거절할 수 없을 정도로 유리한 응답을 해 달라는 요청을 받으신 경험이 있으십니까?</t>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-SQ1. 혹시 고객님의 가족이나 친지 중에 다음 업종에 종사하고 계신 분이 있으신지요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-SQ2. 실례지만 고객님의 ‘연세’는 만으로 어떻게 되시나요? 
-만&lt;#SQ2#&gt;세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-SQ3. &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-SQ4. &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-문 1】 먼저 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;에서 제공하는 서비스의 핵심내용 등에 대해 질문 드리겠습니다.&lt;br/&gt;각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.&lt;br/&gt;0점(전혀 그렇지 않다) 부터 1,2,3,4,5,6,7,8,9,10점(매우 그렇다)까지 동의하시는 정도가 클수록 높은 점수, 작을수록 낮은 점수를 주시면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-문 2】 다음은 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 제공 과정에 대한 질문입니다. 
-앞서 응답하신 방법대로 각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-문 3】 다음은 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 제공 환경에 대한 질문입니다. 앞서 응답하신 방법대로 각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-문 4】 다음은 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;이 공공기관으로서 수행하는 사회적 책임과 역할에 대한 질문입니다. 앞서 응답하신 방법대로 각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-※ 다음은 고객님께서 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;을 통해 경험하신 서비스의 비교평가에 대한 질문입니다. 0점(매우 나쁘다) 부터 1,2,3,4,5,6,7,8,9,10점(매우 좋다)까지 긍정적일수록 높은 점수, 부정적일수록 낮은 점수를 주시면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-※ 다음은 고객님께서 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 이용경험 후 느끼신 전반적인 평가에 대한 질문입니다.&lt;br/&gt;0점(전혀 그렇지 않다) 부터 1,2,3,4,5,6,7,8,9,10점(매우 그렇다)까지 동의하시는 정도가 클수록 높은 점수, 작을수록 낮은 점수를 주시면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-문 7】 고객님께서는 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[면접원 확인용]&lt;br/&gt;&lt;font color=blue&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;/font&gt;&lt;br/&gt;&lt;br/&gt;
-문 8】 마지막으로 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;에 바라시는 점이 있다면 자유롭게 말씀해 주십시오.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>if(QQQ1 == 2 || QQQ1 == 7 || QQQ1 == 13 || QQQ1 == 4) show QQQ01
@@ -1396,6 +1268,131 @@
     <t>(1) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; 직원 → &lt;font color=red&gt;면접중단&lt;/font&gt;
 (2) 광고회사나 시장조사 회사 → &lt;font color=red&gt;면접중단&lt;/font&gt;
 (99) 없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+SQ2. 실례지만 고객님의 ‘연세’는 만으로 어떻게 되시나요? 
+만&lt;#SQ2#&gt;세</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+SQ3. &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+SQ4. &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 1】 먼저 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;에서 제공하는 서비스의 핵심내용 등에 대해 질문 드리겠습니다.&lt;br/&gt;각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.&lt;br/&gt;0점(전혀 그렇지 않다) 부터 1,2,3,4,5,6,7,8,9,10점(매우 그렇다)까지 동의하시는 정도가 클수록 높은 점수, 작을수록 낮은 점수를 주시면 됩니다.</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 2】 다음은 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 제공 과정에 대한 질문입니다. 
+앞서 응답하신 방법대로 각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 3】 다음은 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 제공 환경에 대한 질문입니다. 앞서 응답하신 방법대로 각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 4】 다음은 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;이 공공기관으로서 수행하는 사회적 책임과 역할에 대한 질문입니다. 앞서 응답하신 방법대로 각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+※ 다음은 고객님께서 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;을 통해 경험하신 서비스의 비교평가에 대한 질문입니다. 0점(매우 나쁘다) 부터 1,2,3,4,5,6,7,8,9,10점(매우 좋다)까지 긍정적일수록 높은 점수, 부정적일수록 낮은 점수를 주시면 됩니다.</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+※ 다음은 고객님께서 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 이용경험 후 느끼신 전반적인 평가에 대한 질문입니다.&lt;br/&gt;0점(전혀 그렇지 않다) 부터 1,2,3,4,5,6,7,8,9,10점(매우 그렇다)까지 동의하시는 정도가 클수록 높은 점수, 작을수록 낮은 점수를 주시면 됩니다.</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 7】 고객님께서는 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 8】 마지막으로 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;에 바라시는 점이 있다면 자유롭게 말씀해 주십시오.</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+DQ1. &lt;font color=red&gt;(면접원이 목소리 듣고 입력)&lt;/font&gt; 성별</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+DQ2. 고객님의 직업은 어떻게 되십니까?</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+DQ2. 고객님께서 속해계시는 사업체의 직원 수는 몇 명입니까?&lt;br/&gt;
+&lt;#DQ2X2#&gt; 명
+&lt;font color=red&gt;해당없음 : 999999 입력&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+DQ3. 고객님께서는 공공기관 고객만족도 조사와 관련하여 최근 3개월 이내에 &lt;%TEST%&gt;으로부터 거절할 수 없을 정도로 유리한 응답을 해 달라는 요청을 받으신 경험이 있으십니까?</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%ADD04%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+SQ1. 혹시 고객님의 가족이나 친지 중에 다음 업종에 종사하고 계신 분이 있으신지요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(QQQ12==1) goto BB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2265,11 +2262,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2666,14 +2663,14 @@
         <v>105</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21" t="s">
         <v>116</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H16" s="52" t="s">
         <v>216</v>
@@ -2946,11 +2943,11 @@
         <v>52</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="75" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>193</v>
@@ -2974,7 +2971,7 @@
         <v>117</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -2998,7 +2995,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="s">
@@ -3026,7 +3023,7 @@
         <v>172</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21" t="s">
@@ -3120,7 +3117,7 @@
       </c>
       <c r="C35" s="58"/>
       <c r="D35" s="59" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="35" t="s">
@@ -3166,7 +3163,7 @@
       </c>
       <c r="C37" s="58"/>
       <c r="D37" s="59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E37" s="60"/>
       <c r="F37" s="35" t="s">
@@ -3214,7 +3211,7 @@
         <v>140</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E39" s="60"/>
       <c r="F39" s="35"/>
@@ -3298,7 +3295,7 @@
       </c>
       <c r="C43" s="58"/>
       <c r="D43" s="59" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E43" s="60"/>
       <c r="F43" s="35" t="s">
@@ -3360,7 +3357,7 @@
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
@@ -3464,7 +3461,7 @@
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="56" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E51" s="54"/>
       <c r="F51" s="54" t="s">
@@ -3530,7 +3527,7 @@
         <v>101</v>
       </c>
       <c r="D54" s="56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E54" s="54"/>
       <c r="F54" s="54" t="s">
@@ -3556,7 +3553,7 @@
         <v>167</v>
       </c>
       <c r="D55" s="56" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
@@ -3600,14 +3597,14 @@
         <v>162</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13" t="s">
         <v>163</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H57" s="76"/>
       <c r="I57" s="76"/>
@@ -3623,41 +3620,41 @@
         <v>160</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="G58" s="72" t="s">
-        <v>221</v>
-      </c>
+      <c r="G58" s="72"/>
       <c r="H58" s="76"/>
       <c r="I58" s="76"/>
       <c r="J58" s="76"/>
       <c r="K58" s="76"/>
       <c r="L58" s="76"/>
     </row>
-    <row r="59" spans="1:12" s="73" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="73" customFormat="1" ht="241.5" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="F59" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="G59" s="72" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H59" s="76"/>
       <c r="I59" s="76"/>
@@ -3665,23 +3662,23 @@
       <c r="K59" s="76"/>
       <c r="L59" s="76"/>
     </row>
-    <row r="60" spans="1:12" s="73" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:12" s="73" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="B60" s="13" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="E60" s="13"/>
-      <c r="F60" s="13" t="s">
-        <v>228</v>
-      </c>
+      <c r="F60" s="13"/>
       <c r="G60" s="72" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
@@ -3689,156 +3686,164 @@
       <c r="K60" s="76"/>
       <c r="L60" s="76"/>
     </row>
-    <row r="61" spans="1:12" s="73" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>92</v>
-      </c>
+    <row r="61" spans="1:12" s="73" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
       <c r="B61" s="13" t="s">
         <v>160</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G61" s="72"/>
+        <v>225</v>
+      </c>
+      <c r="G61" s="72" t="s">
+        <v>226</v>
+      </c>
       <c r="H61" s="76"/>
       <c r="I61" s="76"/>
       <c r="J61" s="76"/>
       <c r="K61" s="76"/>
       <c r="L61" s="76"/>
     </row>
-    <row r="62" spans="1:12" s="57" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="47" t="s">
+    <row r="62" spans="1:12" s="73" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+    </row>
+    <row r="63" spans="1:12" s="57" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="48" t="s">
+      <c r="B63" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C63" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="48" t="s">
+      <c r="D63" s="48" t="s">
         <v>132</v>
-      </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="G62" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-    </row>
-    <row r="63" spans="1:12" s="57" customFormat="1" ht="293.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>174</v>
       </c>
       <c r="E63" s="48"/>
       <c r="F63" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50" t="s">
-        <v>175</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="H63" s="49"/>
       <c r="I63" s="49"/>
       <c r="J63" s="49"/>
       <c r="K63" s="49"/>
       <c r="L63" s="49"/>
     </row>
-    <row r="64" spans="1:12" s="57" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="47"/>
+    <row r="64" spans="1:12" s="57" customFormat="1" ht="293.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="47" t="s">
+        <v>92</v>
+      </c>
       <c r="B64" s="48" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="H64" s="50"/>
+      <c r="F64" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50" t="s">
+        <v>175</v>
+      </c>
       <c r="I64" s="49"/>
       <c r="J64" s="49"/>
       <c r="K64" s="49"/>
       <c r="L64" s="49"/>
     </row>
-    <row r="65" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="31" t="s">
+    <row r="65" spans="1:12" s="57" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="47"/>
+      <c r="B65" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="H65" s="50"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+    </row>
+    <row r="66" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B66" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C66" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D66" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-    </row>
-    <row r="66" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A66" s="26" t="s">
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+    </row>
+    <row r="67" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="29"/>
       <c r="B67" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="28" t="s">
-        <v>44</v>
+      <c r="C67" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>207</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="29"/>
@@ -3849,6 +3854,24 @@
       <c r="K67" s="29"/>
       <c r="L67" s="29"/>
     </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="29"/>
+      <c r="B68" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="43"/>
+      <c r="D68" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
